--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H2">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I2">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J2">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>4596.358638110371</v>
+        <v>910.3492816655611</v>
       </c>
       <c r="R2">
-        <v>41367.22774299333</v>
+        <v>8193.143534990051</v>
       </c>
       <c r="S2">
-        <v>0.07324858339319465</v>
+        <v>0.01937258865929369</v>
       </c>
       <c r="T2">
-        <v>0.07324858339319465</v>
+        <v>0.01937258865929369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H3">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I3">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J3">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3989.064251165948</v>
+        <v>1199.557475768898</v>
       </c>
       <c r="R3">
-        <v>35901.57826049353</v>
+        <v>10796.01728192008</v>
       </c>
       <c r="S3">
-        <v>0.06357060631423345</v>
+        <v>0.02552705210986123</v>
       </c>
       <c r="T3">
-        <v>0.06357060631423342</v>
+        <v>0.02552705210986122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.27015933333332</v>
+        <v>11.80898833333333</v>
       </c>
       <c r="H4">
-        <v>117.810478</v>
+        <v>35.426965</v>
       </c>
       <c r="I4">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="J4">
-        <v>0.2257020976862494</v>
+        <v>0.08059095716837197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>5577.414646721766</v>
+        <v>1677.192698258125</v>
       </c>
       <c r="R4">
-        <v>50196.73182049589</v>
+        <v>15094.73428432312</v>
       </c>
       <c r="S4">
-        <v>0.08888290797882134</v>
+        <v>0.03569131639921707</v>
       </c>
       <c r="T4">
-        <v>0.08888290797882133</v>
+        <v>0.03569131639921707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>357.907432</v>
       </c>
       <c r="I5">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J5">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>13963.7063242974</v>
+        <v>9196.971110112472</v>
       </c>
       <c r="R5">
-        <v>125673.3569186766</v>
+        <v>82772.73999101225</v>
       </c>
       <c r="S5">
-        <v>0.2225286988471106</v>
+        <v>0.1957151412275967</v>
       </c>
       <c r="T5">
-        <v>0.2225286988471106</v>
+        <v>0.1957151412275967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>357.907432</v>
       </c>
       <c r="I6">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J6">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
-        <v>12118.75010147915</v>
+        <v>12118.75010147916</v>
       </c>
       <c r="R6">
         <v>109068.7509133124</v>
       </c>
       <c r="S6">
-        <v>0.1931270702136552</v>
+        <v>0.2578917405758752</v>
       </c>
       <c r="T6">
-        <v>0.1931270702136551</v>
+        <v>0.2578917405758752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>357.907432</v>
       </c>
       <c r="I7">
-        <v>0.6856814398113102</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="J7">
-        <v>0.6856814398113101</v>
+        <v>0.8141849724511824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>16944.14781516611</v>
@@ -880,10 +880,10 @@
         <v>152497.330336495</v>
       </c>
       <c r="S7">
-        <v>0.2700256707505445</v>
+        <v>0.3605780906477105</v>
       </c>
       <c r="T7">
-        <v>0.2700256707505444</v>
+        <v>0.3605780906477105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>46.255431</v>
       </c>
       <c r="I8">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J8">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>1804.648902590551</v>
+        <v>1188.603042455963</v>
       </c>
       <c r="R8">
-        <v>16241.84012331496</v>
+        <v>10697.42738210367</v>
       </c>
       <c r="S8">
-        <v>0.0287592823024762</v>
+        <v>0.02529393748579201</v>
       </c>
       <c r="T8">
-        <v>0.0287592823024762</v>
+        <v>0.02529393748579201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>46.255431</v>
       </c>
       <c r="I9">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J9">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>1566.209469283142</v>
@@ -1004,10 +1004,10 @@
         <v>14095.88522354827</v>
       </c>
       <c r="S9">
-        <v>0.02495945898798739</v>
+        <v>0.03332954989232327</v>
       </c>
       <c r="T9">
-        <v>0.02495945898798738</v>
+        <v>0.03332954989232326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>46.255431</v>
       </c>
       <c r="I10">
-        <v>0.08861646250244035</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="J10">
-        <v>0.08861646250244033</v>
+        <v>0.1052240703804457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>2189.836784719846</v>
@@ -1066,10 +1066,10 @@
         <v>19708.53106247861</v>
       </c>
       <c r="S10">
-        <v>0.03489772121197676</v>
+        <v>0.04660058300233039</v>
       </c>
       <c r="T10">
-        <v>0.03489772121197675</v>
+        <v>0.04660058300233038</v>
       </c>
     </row>
   </sheetData>
